--- a/CTROReporting/CTROReporting/Templates/User Support Trial Processing Template.xlsx
+++ b/CTROReporting/CTROReporting/Templates/User Support Trial Processing Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\CSharp\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FAB196-FF4B-445B-B2A2-E0DFF923CF2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8791F-A659-4ED9-8F23-F68EEE598CCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Trial ID</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Not Closed Ticket</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,86 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -631,33 +713,22 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -696,6 +767,16 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -843,6 +924,19 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -860,48 +954,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1094,26 +1146,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2284,104 +2316,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Trial Type" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Submission#" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead Organization" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Received Date" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted Date" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Validator" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Trial ID" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Trial Type" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Submission#" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Lead Organization" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Received Date" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Accepted Date" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Validator" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table991516" displayName="Table991516" ref="I1:M3" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table991516" displayName="Table991516" ref="I1:M3" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="I1:M3" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Validator" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Original" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amendment" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abbreviated" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Normalized Trial Processing Time" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Validator" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Original" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Amendment" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Abbreviated" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Normalized Trial Processing Time" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table37" displayName="Table37" ref="A1:P3" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:P3" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Trial Type" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Submission#" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Lead Oganization" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Accepted Date" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="On-Hold Date" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Off-Hold Date" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="On-Hold Reason" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="On-Hold Description" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Additional Comments" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Processing Status" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Abstractor" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Start Time" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="End Time" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Comments" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Trial Type" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Submission#" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Lead Oganization" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Accepted Date" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="On-Hold Date" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Off-Hold Date" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="On-Hold Reason" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="On-Hold Description" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="Additional Comments" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Processing Status" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Abstractor" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Start Time" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="End Time" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="Comments" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="Processing Time (HH:MM:SS)" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9915" displayName="Table9915" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table9915" displayName="Table9915" ref="R1:Y3" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="R1:Y3" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Abstractor" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Original" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Original Avg Time" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Amendment" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Amendment Avg Time" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Abbreviated" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Abbreviated Avg Time" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Normalized Trial Processing Time" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Abstractor" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Original" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Original Avg Time" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Amendment" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Amendment Avg Time" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Abbreviated" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Abbreviated Avg Time" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Normalized Trial Processing Time" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table378" displayName="Table378" ref="A1:K3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table378" displayName="Table378" ref="A1:K3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:K3" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ticket ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Full Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Email" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Summary" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Assigned To" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="State" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Category" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Created Date" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Modified By" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="Modified Date" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Organization" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Ticket ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Full Name" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Email" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Summary" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Assigned To" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="State" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Category" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Created Date" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Modified By" dataDxfId="16"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="Modified Date" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="Organization" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table991014" displayName="Table991014" ref="M1:O3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="M1:O3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Assigned To" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Closed Ticket" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Not Closed Ticket" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table991014" displayName="Table991014" ref="M1:P3" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="M1:P3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Assigned To" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Closed Ticket" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F7855D61-0519-4BAC-992F-CC09A14F0F95}" name="Not Closed Ticket" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Total" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2391,8 +2424,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table1212" displayName="Table1212" ref="A1:B3" totalsRowShown="0">
   <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Team Member" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Work Time" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Team Member" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Work Time" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2702,17 +2735,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="13" width="25.5703125" style="8" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" style="17" customWidth="1"/>
+    <col min="5" max="6" width="25.54296875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" customWidth="1"/>
+    <col min="9" max="13" width="25.54296875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2750,7 +2783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2764,7 +2797,7 @@
       <c r="L2" s="20"/>
       <c r="M2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -2797,26 +2830,26 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="25.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="50.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="4" customWidth="1"/>
-    <col min="13" max="14" width="25.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="50.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" style="4" customWidth="1"/>
-    <col min="18" max="25" width="25.5703125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="25.54296875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="25.54296875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="50.54296875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="50.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="25.54296875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="25.54296875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="50.54296875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="25.54296875" style="4" customWidth="1"/>
+    <col min="18" max="25" width="25.54296875" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="M2" s="14"/>
@@ -2905,7 +2938,7 @@
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="M3" s="14"/>
@@ -2920,7 +2953,7 @@
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
     </row>
-    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
@@ -2932,10 +2965,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -2949,27 +2982,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="25.5703125" style="24" customWidth="1"/>
+    <col min="1" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="50.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.54296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7265625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="25.54296875" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="25.54296875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
@@ -3012,8 +3045,11 @@
       <c r="O1" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="P1" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="28"/>
@@ -3021,8 +3057,9 @@
       <c r="M2" s="23"/>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="28"/>
@@ -3030,14 +3067,15 @@
       <c r="M3" s="23"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
@@ -3056,12 +3094,12 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
@@ -3069,11 +3107,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="20"/>
     </row>
